--- a/File/MatLab/8/smo_insFrc_AcfNrm.xlsx
+++ b/File/MatLab/8/smo_insFrc_AcfNrm.xlsx
@@ -319,1002 +319,1002 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>2.0797503162401427</v>
+        <v>2.0714786385807313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>2.091908743221705</v>
+        <v>2.08376792163845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2.1027351936080754</v>
+        <v>2.0947616571668086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2.1122726781633863</v>
+        <v>2.1045003371691613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2.1205642076517552</v>
+        <v>2.1130244536488636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2.1276527928373126</v>
+        <v>2.1203744986092743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2.133581444484186</v>
+        <v>2.1265909640537424</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2.138393173356496</v>
+        <v>2.1317143419856275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2.1421309902183716</v>
+        <v>2.1357851244082857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2.144837905833937</v>
+        <v>2.138843803325065</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2.1465569309673205</v>
+        <v>2.1409308707393295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2.1473310763826423</v>
+        <v>2.14208681865443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2.1472033528440333</v>
+        <v>2.1423521390737212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2.146216771115615</v>
+        <v>2.1417673240005604</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2.144414341961516</v>
+        <v>2.1403728654383025</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2.1418390761458608</v>
+        <v>2.1382092553903003</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2.1385339844327764</v>
+        <v>2.1353169858599115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2.1345420775863864</v>
+        <v>2.13173654885049</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2.1299063663708178</v>
+        <v>2.1275084363653916</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2.124669861550194</v>
+        <v>2.122673140407972</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2.1188755738886464</v>
+        <v>2.1172711529815866</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2.112566514150295</v>
+        <v>2.111342966089587</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2.1057856930992647</v>
+        <v>2.1049290717353335</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2.0985761214996854</v>
+        <v>2.09806996192218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2.0909808101156795</v>
+        <v>2.090806128653478</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2.0830427697113754</v>
+        <v>2.0831780639325865</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2.0748050110508975</v>
+        <v>2.075226259762861</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2.067444951492279</v>
+        <v>2.068035910300791</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2.0595118602872993</v>
+        <v>2.060355485788047</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2.051336085112676</v>
+        <v>2.0522128252047116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2.0424408222640036</v>
+        <v>2.04355579521056</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2.033293363660527</v>
+        <v>2.0345685035340675</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2.0242383780390654</v>
+        <v>2.025352153715997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>2.015413407838091</v>
+        <v>2.0162404084975365</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2.006582033829908</v>
+        <v>2.007185319252745</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1.99749043705197</v>
+        <v>1.9980247107622389</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1.9882157849627524</v>
+        <v>1.9890940124067025</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.9793052917553204</v>
+        <v>1.9805405929009918</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1.971439261079691</v>
+        <v>1.9720188973764308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1.9641296234695478</v>
+        <v>1.9638533022628248</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1.9570961285525459</v>
+        <v>1.955895489624356</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1.9502344341056261</v>
+        <v>1.9480981889331677</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1.9430133516209442</v>
+        <v>1.9405164557383392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1.9359220738200777</v>
+        <v>1.9332093033364919</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1.929242861152648</v>
+        <v>1.9262380182598737</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1.922959295702155</v>
+        <v>1.9198069165174698</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1.91710538111885</v>
+        <v>1.913798793890147</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.911693561756517</v>
+        <v>1.908485627111801</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1.9065817969049668</v>
+        <v>1.9039477220104988</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1.9018122574257947</v>
+        <v>1.9000768187451968</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1.8972914360857749</v>
+        <v>1.8960149827229678</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1.892897108150669</v>
+        <v>1.8919735859592552</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1.8886077819082288</v>
+        <v>1.8877732252343564</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1.8842821556749638</v>
+        <v>1.8833558588414552</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1.8801352106687044</v>
+        <v>1.879131289615586</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1.876275522850744</v>
+        <v>1.8748554710865024</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1.8724698015197383</v>
+        <v>1.8709077004169816</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.8689251577191344</v>
+        <v>1.8672554650757747</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1.8656188618768064</v>
+        <v>1.863881282378746</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1.862309799699271</v>
+        <v>1.8609593447277084</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1.859308832045564</v>
+        <v>1.8581740453428286</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1.856388467258184</v>
+        <v>1.8554672035442574</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1.8536263212983415</v>
+        <v>1.8529888626868778</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1.8510421548603728</v>
+        <v>1.8505925490313315</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1.848468022834262</v>
+        <v>1.8482452726868992</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1.84594564799055</v>
+        <v>1.8459198278325866</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1.8433636237879136</v>
+        <v>1.8435147658079623</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.8408451115986624</v>
+        <v>1.8411558605610663</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1.838475450354408</v>
+        <v>1.838893851534868</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1.8362375602124215</v>
+        <v>1.8367696670764135</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1.833803610053631</v>
+        <v>1.8346058784935613</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1.8312743338526325</v>
+        <v>1.8322924395334634</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1.8282291032737144</v>
+        <v>1.8295478719278915</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1.8250478750453722</v>
+        <v>1.8265411981902788</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1.8214813228793496</v>
+        <v>1.8232017259503273</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1.817919122530769</v>
+        <v>1.8199299528975255</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1.8146669814960346</v>
+        <v>1.8166841486844145</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.8115678088332046</v>
+        <v>1.8131577211598955</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1.8081604194633263</v>
+        <v>1.8094952022754058</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1.8045947255673465</v>
+        <v>1.8059796856038153</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1.8012145563605544</v>
+        <v>1.802737332161435</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1.7979010723960127</v>
+        <v>1.7995680291209464</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1.79457623175858</v>
+        <v>1.796421620222504</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.791449306559885</v>
+        <v>1.7933252035564768</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1.7883920859400335</v>
+        <v>1.790262900284055</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1.7852270174153246</v>
+        <v>1.787248747512872</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1.7821222203966014</v>
+        <v>1.7842430447143351</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.7790148280417697</v>
+        <v>1.7811895809017306</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1.775886581851839</v>
+        <v>1.778130870442744</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1.7728166550710147</v>
+        <v>1.7751525660793503</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1.7697667297725634</v>
+        <v>1.7720877359253169</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1.7668215531757472</v>
+        <v>1.7691192834196183</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1.7637821819731123</v>
+        <v>1.7659863387874382</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1.760815682410493</v>
+        <v>1.7630007686017597</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1.758157797783226</v>
+        <v>1.7602698166725672</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1.7557049992106961</v>
+        <v>1.7578822152606595</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1.7537491437797788</v>
+        <v>1.7557075967503168</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.7518714928982109</v>
+        <v>1.7538183335540127</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1.7497903252256601</v>
+        <v>1.7516404027946817</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1.7477825465189865</v>
+        <v>1.749546473456707</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1.74605820468142</v>
+        <v>1.7478817259871327</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1.744439639142321</v>
+        <v>1.746410620950618</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1.7431088984057546</v>
+        <v>1.7453105205383788</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1.742139166111064</v>
+        <v>1.7443920195829108</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1.741100564676981</v>
+        <v>1.7433732768837813</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1.7398371660742036</v>
+        <v>1.741988511867396</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1.7383469771598672</v>
+        <v>1.7404823711261532</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.7366377569232494</v>
+        <v>1.738737214009909</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1.7345548249444607</v>
+        <v>1.7370009197180114</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1.7324538762982167</v>
+        <v>1.7350919593752103</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1.7301659600435464</v>
+        <v>1.7329621809457552</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1.7275793760555571</v>
+        <v>1.730428813084738</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1.724596612093543</v>
+        <v>1.7273087995816532</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1.7211012218773138</v>
+        <v>1.72354844390336</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1.7173981655994823</v>
+        <v>1.7195137098010163</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1.713584402309924</v>
+        <v>1.7152509642988079</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1.709661485555992</v>
+        <v>1.7109685457180255</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.7058204258024212</v>
+        <v>1.7067972304883725</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1.7020453624860659</v>
+        <v>1.7027479924436728</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1.698248578115466</v>
+        <v>1.6987630441282842</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1.6943557985032023</v>
+        <v>1.6946343165602906</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1.6901067589394876</v>
+        <v>1.6901722386471552</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1.6855147215611916</v>
+        <v>1.685209588537914</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1.6805574245046095</v>
+        <v>1.6798904289673897</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1.6757804230555897</v>
+        <v>1.6747492646890567</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1.6713091190538636</v>
+        <v>1.6697523410942534</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1.6671774679057554</v>
+        <v>1.6651564928218152</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.6635001440007402</v>
+        <v>1.66118160273452</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1.6602863850261045</v>
+        <v>1.6575789257056532</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1.6577306886326022</v>
+        <v>1.6548351294178216</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1.6554972401844288</v>
+        <v>1.6525159858524614</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>1.6536463930178742</v>
+        <v>1.6505567841382274</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1.6520058297339315</v>
+        <v>1.6489301151182876</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1.6503368808707641</v>
+        <v>1.6472264513261434</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1.6487244632041604</v>
+        <v>1.645626219171713</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.6472130019538562</v>
+        <v>1.644023133765001</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1.6454888659112827</v>
+        <v>1.642280422621648</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.6437549695430167</v>
+        <v>1.640518069317899</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1.6422131396483404</v>
+        <v>1.6387362923477358</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1.6406552181891856</v>
+        <v>1.6371617173365305</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1.639362539623008</v>
+        <v>1.6357941255916202</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1.6385548135231167</v>
+        <v>1.6349236502131657</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1.6381359042184769</v>
+        <v>1.634536364387115</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1.6379640679921286</v>
+        <v>1.6345035701189388</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1.6380656738282386</v>
+        <v>1.634825350998438</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1.6384841357643753</v>
+        <v>1.6354069655149515</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1.6390493840707772</v>
+        <v>1.6361800475183614</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.6395348464372645</v>
+        <v>1.6369927415989123</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1.6400079349372874</v>
+        <v>1.6376335398478197</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1.640191484400938</v>
+        <v>1.6381207408647334</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1.6402355098023762</v>
+        <v>1.63841931662294</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1.6405278188123202</v>
+        <v>1.6390754171675983</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1.64083190033989</v>
+        <v>1.6398996618829145</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1.6409612667778375</v>
+        <v>1.6403674714201517</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1.641135500251568</v>
+        <v>1.6407942177122505</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1.6411337268455302</v>
+        <v>1.6407925863800799</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1.6407053087491168</v>
+        <v>1.6405496201048069</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.6401262628413866</v>
+        <v>1.6401301611826167</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1.6395550391478118</v>
+        <v>1.6396563164627542</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1.6390984458695221</v>
+        <v>1.6392517516444092</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>1.6386120538144442</v>
+        <v>1.638826775732827</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1.6381145491465448</v>
+        <v>1.6383471873978916</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1.6375899132130687</v>
+        <v>1.6379307585121452</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1.637068398254852</v>
+        <v>1.637418499310112</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>1.6366200191023408</v>
+        <v>1.6369213022637252</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>1.6363794420777362</v>
+        <v>1.6366155378380525</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1.6363725752345353</v>
+        <v>1.63668628099072</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.6367580695268373</v>
+        <v>1.637096734788431</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>1.6374638103953751</v>
+        <v>1.6378940587428534</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>1.638176833815099</v>
+        <v>1.6386795603534983</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>1.6386875873186202</v>
+        <v>1.6392246589593877</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1.6390447412761155</v>
+        <v>1.6395421467863336</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>1.639334335528529</v>
+        <v>1.6396570109545938</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1.639542775160427</v>
+        <v>1.6396840628549099</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>1.6408956265496424</v>
+        <v>1.641043158151257</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1.6422888418319894</v>
+        <v>1.6424441897345579</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1.6437068513373658</v>
+        <v>1.6438715367321792</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.6451340853956669</v>
+        <v>1.6453095782714908</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>1.6465549743367869</v>
+        <v>1.6467426934798572</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>1.647953948490624</v>
+        <v>1.64815526148465</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>1.6493154381870716</v>
+        <v>1.6495316614132354</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1.6506238737560261</v>
+        <v>1.6508562723929816</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1.6518636855273836</v>
+        <v>1.6521134735512566</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1.6530193038310386</v>
+        <v>1.6532876440154294</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>1.6540751589968885</v>
+        <v>1.654363162912866</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>1.6550156813548271</v>
+        <v>1.6553244093709354</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1.6558253012347504</v>
+        <v>1.656155762517006</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.6564884489665548</v>
+        <v>1.656841601478445</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>1.6569895548801357</v>
+        <v>1.657366305382621</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>1.6573130493053885</v>
+        <v>1.6577142533569018</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>1.6574433625722083</v>
+        <v>1.6578698245286554</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>1.6573649250104916</v>
+        <v>1.6578173980252493</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1.6570621669501335</v>
+        <v>1.6575413529740517</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1.6565195187210298</v>
+        <v>1.6570260685024312</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>1.6557214106530762</v>
+        <v>1.6562559237377548</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1.6546522730761684</v>
+        <v>1.6552152978073913</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1.653296536320202</v>
+        <v>1.6538885698387085</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.6516386307150719</v>
+        <v>1.6522601189590738</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>1.6496629865906747</v>
+        <v>1.6503143242958556</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>1.6473540342769055</v>
+        <v>1.648035564976422</v>
       </c>
     </row>
   </sheetData>
